--- a/ArticleManage/main_working_folder/output_folders/Data 89 A low cost and/Data89_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 89 A low cost and/Data89_all_graphs_excel.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="AC-10" sheetId="1" r:id="rId1"/>
-    <sheet name="AC-7" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4 AC-10  0-1-0-700 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4 AC-7  0-1-0-700 " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -101,7 +101,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-10</a:t>
+              <a:t>Izoterma adsorpcji probki AC-10 z wykresu 'Figure 4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-10'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4 AC-10  0-1-0-700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-10'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4 AC-10  0-1-0-700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -178,6 +178,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -247,6 +249,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -411,7 +415,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-7</a:t>
+              <a:t>Izoterma adsorpcji probki AC-7 z wykresu 'Figure 4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -470,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-7'!$A$3:$A$50</c:f>
+              <c:f>'Figure 4 AC-7  0-1-0-700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-7'!$B$3:$B$50</c:f>
+              <c:f>'Figure 4 AC-7  0-1-0-700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -488,6 +492,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -557,6 +563,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 89 A low cost and/Data89_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 89 A low cost and/Data89_all_graphs_excel.xlsx
@@ -2185,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2206,389 +2206,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.0059</v>
       </c>
       <c r="B3" s="0">
-        <v>331.1195</v>
+        <v>218.0059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.0099</v>
       </c>
       <c r="B4" s="0">
-        <v>349.6552</v>
+        <v>241.0099</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.0208</v>
       </c>
       <c r="B5" s="0">
-        <v>365.1607</v>
+        <v>267.0208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.0287</v>
       </c>
       <c r="B6" s="0">
-        <v>377.3385</v>
+        <v>282.0287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.0386</v>
       </c>
       <c r="B7" s="0">
-        <v>390.4052</v>
+        <v>294.0386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.0475</v>
       </c>
       <c r="B8" s="0">
-        <v>403.5558</v>
+        <v>305.0475</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.0603</v>
       </c>
       <c r="B9" s="0">
-        <v>414.8147</v>
+        <v>316.0603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.0702</v>
       </c>
       <c r="B10" s="0">
-        <v>427.7138</v>
+        <v>327.0702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.0811</v>
       </c>
       <c r="B11" s="0">
-        <v>436.937</v>
+        <v>335.0811</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.089</v>
       </c>
       <c r="B12" s="0">
-        <v>448.2954</v>
+        <v>342.089</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.0979</v>
       </c>
       <c r="B13" s="0">
-        <v>458.2224</v>
+        <v>350.0979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.1197</v>
       </c>
       <c r="B14" s="0">
-        <v>469.0735</v>
+        <v>365.1197</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.1414</v>
       </c>
       <c r="B15" s="0">
-        <v>478.657</v>
+        <v>380.1414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.1662</v>
       </c>
       <c r="B16" s="0">
-        <v>485.8816</v>
+        <v>395.1662</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.182</v>
       </c>
       <c r="B17" s="0">
-        <v>494.4861</v>
+        <v>405.182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.48</v>
+        <v>0.2018</v>
       </c>
       <c r="B18" s="0">
-        <v>529.7021</v>
+        <v>416.2018</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.54</v>
+        <v>0.2206</v>
       </c>
       <c r="B19" s="0">
-        <v>540.4972</v>
+        <v>427.2206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.56</v>
+        <v>0.2562</v>
       </c>
       <c r="B20" s="0">
-        <v>543.2435</v>
+        <v>446.2562</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.58</v>
+        <v>0.2849</v>
       </c>
       <c r="B21" s="0">
-        <v>544.4603</v>
+        <v>461.2849</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6</v>
+        <v>0.3007</v>
       </c>
       <c r="B22" s="0">
-        <v>545.9001</v>
+        <v>470.3007</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.62</v>
+        <v>0.3551</v>
       </c>
       <c r="B23" s="0">
-        <v>547.8539</v>
+        <v>494.3551</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.64</v>
+        <v>0.3966</v>
       </c>
       <c r="B24" s="0">
-        <v>550.0954</v>
+        <v>512.3966</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.66</v>
+        <v>0.4461</v>
       </c>
       <c r="B25" s="0">
-        <v>552.2999</v>
+        <v>523.4461</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.68</v>
+        <v>0.4946</v>
       </c>
       <c r="B26" s="0">
-        <v>553.8272</v>
+        <v>533.4946</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7</v>
+        <v>0.545</v>
       </c>
       <c r="B27" s="0">
-        <v>554.5691</v>
+        <v>540.545</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.72</v>
+        <v>0.5955</v>
       </c>
       <c r="B28" s="0">
-        <v>555.351</v>
+        <v>544.5955</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.74</v>
+        <v>0.6439</v>
       </c>
       <c r="B29" s="0">
-        <v>555.7832</v>
+        <v>548.6439</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.76</v>
+        <v>0.6954</v>
       </c>
       <c r="B30" s="0">
-        <v>555.9561</v>
+        <v>551.6954</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.78</v>
+        <v>0.7448</v>
       </c>
       <c r="B31" s="0">
-        <v>556.9972</v>
+        <v>553.7448</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8</v>
+        <v>0.7962</v>
       </c>
       <c r="B32" s="0">
-        <v>558.0372</v>
+        <v>554.7962</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.82</v>
+        <v>0.818</v>
       </c>
       <c r="B33" s="0">
-        <v>557.7782</v>
+        <v>555.818</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.84</v>
+        <v>0.8487</v>
       </c>
       <c r="B34" s="0">
-        <v>556.7094</v>
+        <v>557.8487</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.86</v>
+        <v>0.8744</v>
       </c>
       <c r="B35" s="0">
-        <v>557.2193</v>
+        <v>557.8744</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.88</v>
+        <v>0.8991</v>
       </c>
       <c r="B36" s="0">
-        <v>559.4414</v>
+        <v>558.8991</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9</v>
+        <v>0.9238</v>
       </c>
       <c r="B37" s="0">
-        <v>558.3243</v>
+        <v>558.9238</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0593</v>
+        <v>0.9476</v>
       </c>
       <c r="B38" s="0">
-        <v>317.0593</v>
+        <v>559.9476</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.0475</v>
+        <v>0.9614</v>
       </c>
       <c r="B39" s="0">
-        <v>305.0475</v>
+        <v>561.9614</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0396</v>
+        <v>0.9792</v>
       </c>
       <c r="B40" s="0">
-        <v>296.0396</v>
+        <v>562.9792</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.0297</v>
+        <v>0.9921</v>
       </c>
       <c r="B41" s="0">
-        <v>283.0297</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.0208</v>
-      </c>
-      <c r="B42" s="0">
-        <v>269.0208</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.0099</v>
-      </c>
-      <c r="B43" s="0">
-        <v>240.0099</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.4481</v>
-      </c>
-      <c r="B44" s="0">
-        <v>522.4481</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.3976</v>
-      </c>
-      <c r="B45" s="0">
-        <v>512.3976</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.4955</v>
-      </c>
-      <c r="B46" s="0">
-        <v>531.4955</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9318</v>
-      </c>
-      <c r="B47" s="0">
-        <v>560.9318</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9496</v>
-      </c>
-      <c r="B48" s="0">
-        <v>561.9496</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9664</v>
-      </c>
-      <c r="B49" s="0">
-        <v>561.9664</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9931</v>
-      </c>
-      <c r="B50" s="0">
-        <v>565.9931</v>
-      </c>
-    </row>
-    <row r="51"/>
+        <v>562.9921</v>
+      </c>
+    </row>
+    <row r="42"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -2597,7 +2525,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2618,413 +2546,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9931</v>
       </c>
       <c r="B3" s="0">
-        <v>239.6075</v>
+        <v>689.9931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9822</v>
       </c>
       <c r="B4" s="0">
-        <v>264.7964</v>
+        <v>686.9822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9723</v>
       </c>
       <c r="B5" s="0">
-        <v>286.7123</v>
+        <v>684.9723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.9614</v>
       </c>
       <c r="B6" s="0">
-        <v>299.175</v>
+        <v>682.9614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.9456</v>
       </c>
       <c r="B7" s="0">
-        <v>313.8207</v>
+        <v>679.9456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.9238</v>
       </c>
       <c r="B8" s="0">
-        <v>327.3428</v>
+        <v>675.9238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.8981</v>
       </c>
       <c r="B9" s="0">
-        <v>337.8162</v>
+        <v>674.8981</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.8724</v>
       </c>
       <c r="B10" s="0">
-        <v>349.7003</v>
+        <v>671.8724</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.8467</v>
       </c>
       <c r="B11" s="0">
-        <v>362.3541</v>
+        <v>668.8467</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.814</v>
       </c>
       <c r="B12" s="0">
-        <v>375.2015</v>
+        <v>665.814</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.7933</v>
       </c>
       <c r="B13" s="0">
-        <v>387.3111</v>
+        <v>662.7933</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.7438</v>
       </c>
       <c r="B14" s="0">
-        <v>396.6687</v>
+        <v>655.7438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.6954</v>
       </c>
       <c r="B15" s="0">
-        <v>409.8117</v>
+        <v>645.6954</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.6479</v>
       </c>
       <c r="B16" s="0">
-        <v>419.9366</v>
+        <v>631.6479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.5964</v>
       </c>
       <c r="B17" s="0">
-        <v>428.9049</v>
+        <v>610.5964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.545</v>
       </c>
       <c r="B18" s="0">
-        <v>442.8299</v>
+        <v>582.545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.4926</v>
       </c>
       <c r="B19" s="0">
-        <v>467.8693</v>
+        <v>553.4926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.4451</v>
       </c>
       <c r="B20" s="0">
-        <v>480.5189</v>
+        <v>517.4451</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.42</v>
+        <v>0.3937</v>
       </c>
       <c r="B21" s="0">
-        <v>505.3926</v>
+        <v>487.3937</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.44</v>
+        <v>0.3492</v>
       </c>
       <c r="B22" s="0">
-        <v>513.4493</v>
+        <v>460.3492</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.46</v>
+        <v>0.3007</v>
       </c>
       <c r="B23" s="0">
-        <v>526.9873</v>
+        <v>432.3007</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.48</v>
+        <v>0.2789</v>
       </c>
       <c r="B24" s="0">
-        <v>542.49</v>
+        <v>419.2789</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5</v>
+        <v>0.2562</v>
       </c>
       <c r="B25" s="0">
-        <v>556.7669</v>
+        <v>407.2562</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.52</v>
+        <v>0.2473</v>
       </c>
       <c r="B26" s="0">
-        <v>569.8532</v>
+        <v>402.2473</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.54</v>
+        <v>0.2176</v>
       </c>
       <c r="B27" s="0">
-        <v>578.6415</v>
+        <v>385.2176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.56</v>
+        <v>0.1998</v>
       </c>
       <c r="B28" s="0">
-        <v>591.9752</v>
+        <v>376.1998</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.58</v>
+        <v>0.18</v>
       </c>
       <c r="B29" s="0">
-        <v>601.4262</v>
+        <v>365.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6</v>
+        <v>0.1622</v>
       </c>
       <c r="B30" s="0">
-        <v>611.5468</v>
+        <v>355.1622</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.62</v>
+        <v>0.1405</v>
       </c>
       <c r="B31" s="0">
-        <v>620.6557</v>
+        <v>343.1405</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.64</v>
+        <v>0.1197</v>
       </c>
       <c r="B32" s="0">
-        <v>628.097</v>
+        <v>330.1197</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.66</v>
+        <v>0.0969</v>
       </c>
       <c r="B33" s="0">
-        <v>635.9896</v>
+        <v>316.0969</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.68</v>
+        <v>0.0801</v>
       </c>
       <c r="B34" s="0">
-        <v>641.5414</v>
+        <v>305.0801</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7</v>
+        <v>0.0623</v>
       </c>
       <c r="B35" s="0">
-        <v>646.759</v>
+        <v>292.0623</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.72</v>
+        <v>0.0475</v>
       </c>
       <c r="B36" s="0">
-        <v>652.8106</v>
+        <v>279.0475</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.74</v>
+        <v>0.0297</v>
       </c>
       <c r="B37" s="0">
-        <v>658.1296</v>
+        <v>259.0297</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.76</v>
+        <v>0.0376</v>
       </c>
       <c r="B38" s="0">
-        <v>662.536</v>
+        <v>269.0376</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.78</v>
+        <v>0.0198</v>
       </c>
       <c r="B39" s="0">
-        <v>666.0852</v>
+        <v>247.0198</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8</v>
+        <v>0.0059</v>
       </c>
       <c r="B40" s="0">
-        <v>668.7807</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B41" s="0">
-        <v>670.2933</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>671.516</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>675.8236</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>678.3125</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>678.4792</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>678.1587</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9377</v>
-      </c>
-      <c r="B47" s="0">
-        <v>677.9377</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9555</v>
-      </c>
-      <c r="B48" s="0">
-        <v>680.9555</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9733</v>
-      </c>
-      <c r="B49" s="0">
-        <v>684.9733</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9901</v>
-      </c>
-      <c r="B50" s="0">
-        <v>687.9901</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.3937</v>
-      </c>
-      <c r="B51" s="0">
-        <v>486.3937</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.3452</v>
-      </c>
-      <c r="B52" s="0">
-        <v>458.3452</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0307</v>
-      </c>
-      <c r="B53" s="0">
-        <v>257.0307</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>204.0059</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 89 A low cost and/Data89_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 89 A low cost and/Data89_all_graphs_excel.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4 AC-10  0-1-0-700 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4 AC-7  0-1-0-700 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4 AC-10  0&amp;1&amp;0&amp;700 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4 AC-7  0&amp;1&amp;0&amp;700 " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 AC-10  0-1-0-700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 AC-10  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 AC-10  0-1-0-700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 AC-10  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -474,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 AC-7  0-1-0-700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 AC-7  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 AC-7  0-1-0-700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 AC-7  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2185,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2206,317 +2206,349 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0059</v>
+        <v>0.9936</v>
       </c>
       <c r="B3" s="0">
-        <v>218.0059</v>
+        <v>565.0931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0099</v>
+        <v>0.9713</v>
       </c>
       <c r="B4" s="0">
-        <v>241.0099</v>
+        <v>563.0834</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0208</v>
+        <v>0.9604</v>
       </c>
       <c r="B5" s="0">
-        <v>267.0208</v>
+        <v>561.5791</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0287</v>
+        <v>0.9485</v>
       </c>
       <c r="B6" s="0">
-        <v>282.0287</v>
+        <v>560.0742</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0386</v>
+        <v>0.9347</v>
       </c>
       <c r="B7" s="0">
-        <v>294.0386</v>
+        <v>560.0673</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0475</v>
+        <v>0.9233</v>
       </c>
       <c r="B8" s="0">
-        <v>305.0475</v>
+        <v>560.0616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0603</v>
+        <v>0.9114</v>
       </c>
       <c r="B9" s="0">
-        <v>316.0603</v>
+        <v>559.0564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0702</v>
+        <v>0.8976</v>
       </c>
       <c r="B10" s="0">
-        <v>327.0702</v>
+        <v>558.5498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0811</v>
+        <v>0.8723</v>
       </c>
       <c r="B11" s="0">
-        <v>335.0811</v>
+        <v>558.5372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.089</v>
+        <v>0.8491</v>
       </c>
       <c r="B12" s="0">
-        <v>342.089</v>
+        <v>558.5256</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0979</v>
+        <v>0.8184</v>
       </c>
       <c r="B13" s="0">
-        <v>350.0979</v>
+        <v>556.5117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1197</v>
+        <v>0.7956</v>
       </c>
       <c r="B14" s="0">
-        <v>365.1197</v>
+        <v>555.0014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1414</v>
+        <v>0.7457</v>
       </c>
       <c r="B15" s="0">
-        <v>380.1414</v>
+        <v>552.4782</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1662</v>
+        <v>0.6957</v>
       </c>
       <c r="B16" s="0">
-        <v>395.1662</v>
+        <v>552.4532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.182</v>
+        <v>0.6467</v>
       </c>
       <c r="B17" s="0">
-        <v>405.182</v>
+        <v>549.4309</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2018</v>
+        <v>0.5948</v>
       </c>
       <c r="B18" s="0">
-        <v>416.2018</v>
+        <v>544.9082</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2206</v>
+        <v>0.5453</v>
       </c>
       <c r="B19" s="0">
-        <v>427.2206</v>
+        <v>540.3866</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2562</v>
+        <v>0.4948</v>
       </c>
       <c r="B20" s="0">
-        <v>446.2562</v>
+        <v>533.3664</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2849</v>
+        <v>0.4468</v>
       </c>
       <c r="B21" s="0">
-        <v>461.2849</v>
+        <v>522.3503</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3007</v>
+        <v>0.3963</v>
       </c>
       <c r="B22" s="0">
-        <v>470.3007</v>
+        <v>510.3336</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3551</v>
+        <v>0.3538</v>
       </c>
       <c r="B23" s="0">
-        <v>494.3551</v>
+        <v>494.3238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3966</v>
+        <v>0.3018</v>
       </c>
       <c r="B24" s="0">
-        <v>512.3966</v>
+        <v>471.8139</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4461</v>
+        <v>0.284</v>
       </c>
       <c r="B25" s="0">
-        <v>523.4461</v>
+        <v>462.8114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4946</v>
+        <v>0.2548</v>
       </c>
       <c r="B26" s="0">
-        <v>533.4946</v>
+        <v>448.3072</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.545</v>
+        <v>0.2479</v>
       </c>
       <c r="B27" s="0">
-        <v>540.545</v>
+        <v>444.8062</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5955</v>
+        <v>0.2197</v>
       </c>
       <c r="B28" s="0">
-        <v>544.5955</v>
+        <v>427.8043</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6439</v>
+        <v>0.2004</v>
       </c>
       <c r="B29" s="0">
-        <v>548.6439</v>
+        <v>417.3021</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6954</v>
+        <v>0.1816</v>
       </c>
       <c r="B30" s="0">
-        <v>551.6954</v>
+        <v>405.3013</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7448</v>
+        <v>0.1648</v>
       </c>
       <c r="B31" s="0">
-        <v>553.7448</v>
+        <v>395.7997</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7962</v>
+        <v>0.1569</v>
       </c>
       <c r="B32" s="0">
-        <v>554.7962</v>
+        <v>390.7993</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.818</v>
+        <v>0.14</v>
       </c>
       <c r="B33" s="0">
-        <v>555.818</v>
+        <v>379.2991</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8487</v>
+        <v>0.1192</v>
       </c>
       <c r="B34" s="0">
-        <v>557.8487</v>
+        <v>365.7983</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8744</v>
+        <v>0.098</v>
       </c>
       <c r="B35" s="0">
-        <v>557.8744</v>
+        <v>349.7991</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8991</v>
+        <v>0.0881</v>
       </c>
       <c r="B36" s="0">
-        <v>558.8991</v>
+        <v>342.2995</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9238</v>
+        <v>0.0811</v>
       </c>
       <c r="B37" s="0">
-        <v>558.9238</v>
+        <v>335.8007</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9476</v>
+        <v>0.0698</v>
       </c>
       <c r="B38" s="0">
-        <v>559.9476</v>
+        <v>326.3018</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9614</v>
+        <v>0.0594</v>
       </c>
       <c r="B39" s="0">
-        <v>561.9614</v>
+        <v>316.8034</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9792</v>
+        <v>0.0485</v>
       </c>
       <c r="B40" s="0">
-        <v>562.9792</v>
+        <v>306.3055</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9921</v>
+        <v>0.0391</v>
       </c>
       <c r="B41" s="0">
-        <v>562.9921</v>
-      </c>
-    </row>
-    <row r="42"/>
+        <v>295.3086</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0297</v>
+      </c>
+      <c r="B42" s="0">
+        <v>282.3132</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0198</v>
+      </c>
+      <c r="B43" s="0">
+        <v>266.3197</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0104</v>
+      </c>
+      <c r="B44" s="0">
+        <v>241.3328</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0054</v>
+      </c>
+      <c r="B45" s="0">
+        <v>218.8464</v>
+      </c>
+    </row>
+    <row r="46"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -2525,7 +2557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2546,309 +2578,325 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9931</v>
+        <v>0.9936</v>
       </c>
       <c r="B3" s="0">
-        <v>689.9931</v>
+        <v>689.5043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9822</v>
+        <v>0.9733</v>
       </c>
       <c r="B4" s="0">
-        <v>686.9822</v>
+        <v>685.497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9723</v>
+        <v>0.9599</v>
       </c>
       <c r="B5" s="0">
-        <v>684.9723</v>
+        <v>681.9928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9614</v>
+        <v>0.948</v>
       </c>
       <c r="B6" s="0">
-        <v>682.9614</v>
+        <v>680.488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9456</v>
+        <v>0.9357</v>
       </c>
       <c r="B7" s="0">
-        <v>679.9456</v>
+        <v>680.9814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9238</v>
+        <v>0.9248</v>
       </c>
       <c r="B8" s="0">
-        <v>675.9238</v>
+        <v>676.9788</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8981</v>
+        <v>0.9065</v>
       </c>
       <c r="B9" s="0">
-        <v>674.8981</v>
+        <v>679.4679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8724</v>
+        <v>0.8981</v>
       </c>
       <c r="B10" s="0">
-        <v>671.8724</v>
+        <v>673.9676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8467</v>
+        <v>0.8728</v>
       </c>
       <c r="B11" s="0">
-        <v>668.8467</v>
+        <v>672.4561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.814</v>
+        <v>0.8456</v>
       </c>
       <c r="B12" s="0">
-        <v>665.814</v>
+        <v>667.9457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7933</v>
+        <v>0.8149</v>
       </c>
       <c r="B13" s="0">
-        <v>662.7933</v>
+        <v>665.9318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7438</v>
+        <v>0.7932</v>
       </c>
       <c r="B14" s="0">
-        <v>655.7438</v>
+        <v>662.9231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6954</v>
+        <v>0.7452</v>
       </c>
       <c r="B15" s="0">
-        <v>645.6954</v>
+        <v>655.4044</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6479</v>
+        <v>0.6957</v>
       </c>
       <c r="B16" s="0">
-        <v>631.6479</v>
+        <v>645.3869</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5964</v>
+        <v>0.6472</v>
       </c>
       <c r="B17" s="0">
-        <v>610.5964</v>
+        <v>631.8723</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.545</v>
+        <v>0.5962</v>
       </c>
       <c r="B18" s="0">
-        <v>582.545</v>
+        <v>610.3621</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4926</v>
+        <v>0.5458</v>
       </c>
       <c r="B19" s="0">
-        <v>553.4926</v>
+        <v>582.3569</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4451</v>
+        <v>0.4938</v>
       </c>
       <c r="B20" s="0">
-        <v>517.4451</v>
+        <v>551.3531</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3937</v>
+        <v>0.4448</v>
       </c>
       <c r="B21" s="0">
-        <v>487.3937</v>
+        <v>518.8518</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3492</v>
+        <v>0.3939</v>
       </c>
       <c r="B22" s="0">
-        <v>460.3492</v>
+        <v>486.3495</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3007</v>
+        <v>0.3498</v>
       </c>
       <c r="B23" s="0">
-        <v>432.3007</v>
+        <v>461.845</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2789</v>
+        <v>0.3434</v>
       </c>
       <c r="B24" s="0">
-        <v>419.2789</v>
+        <v>456.8454</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2562</v>
+        <v>0.3008</v>
       </c>
       <c r="B25" s="0">
-        <v>407.2562</v>
+        <v>432.3416</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2473</v>
+        <v>0.2791</v>
       </c>
       <c r="B26" s="0">
-        <v>402.2473</v>
+        <v>418.8404</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2176</v>
+        <v>0.2558</v>
       </c>
       <c r="B27" s="0">
-        <v>385.2176</v>
+        <v>406.8373</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1998</v>
+        <v>0.2469</v>
       </c>
       <c r="B28" s="0">
-        <v>376.1998</v>
+        <v>400.8371</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.18</v>
+        <v>0.2182</v>
       </c>
       <c r="B29" s="0">
-        <v>365.18</v>
+        <v>385.8335</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.1622</v>
+        <v>0.1999</v>
       </c>
       <c r="B30" s="0">
-        <v>355.1622</v>
+        <v>376.8308</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.1405</v>
+        <v>0.1806</v>
       </c>
       <c r="B31" s="0">
-        <v>343.1405</v>
+        <v>365.829</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.1197</v>
+        <v>0.1628</v>
       </c>
       <c r="B32" s="0">
-        <v>330.1197</v>
+        <v>355.3276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0969</v>
+        <v>0.1395</v>
       </c>
       <c r="B33" s="0">
-        <v>316.0969</v>
+        <v>342.8249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0801</v>
+        <v>0.1197</v>
       </c>
       <c r="B34" s="0">
-        <v>305.0801</v>
+        <v>331.3232</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0623</v>
+        <v>0.0985</v>
       </c>
       <c r="B35" s="0">
-        <v>292.0623</v>
+        <v>315.8236</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0475</v>
+        <v>0.0821</v>
       </c>
       <c r="B36" s="0">
-        <v>279.0475</v>
+        <v>306.3223</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0297</v>
+        <v>0.0619</v>
       </c>
       <c r="B37" s="0">
-        <v>259.0297</v>
+        <v>291.8225</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0376</v>
+        <v>0.048</v>
       </c>
       <c r="B38" s="0">
-        <v>269.0376</v>
+        <v>280.3238</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.0198</v>
+        <v>0.0386</v>
       </c>
       <c r="B39" s="0">
-        <v>247.0198</v>
+        <v>269.8266</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0059</v>
+        <v>0.0292</v>
       </c>
       <c r="B40" s="0">
-        <v>204.0059</v>
-      </c>
-    </row>
-    <row r="41"/>
+        <v>260.3286</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0208</v>
+      </c>
+      <c r="B41" s="0">
+        <v>247.3337</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0054</v>
+      </c>
+      <c r="B42" s="0">
+        <v>203.8571</v>
+      </c>
+    </row>
+    <row r="43"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
